--- a/bin/Debug/BackUp/Player_Pokemon.xlsx
+++ b/bin/Debug/BackUp/Player_Pokemon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\OneDrive\Documents\2017 - ENSAE 2A\S1\Projet C++\rpg-pokemon\PKMN_BackUp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\OneDrive\Documents\2017 - ENSAE 2A\S1\Projet C++\rpg-pokemon\BackUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="C52D940A6A74FBFCC37D34A20B5067E25C3BE882" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{E558F329-4381-4C95-80F9-356429B4E942}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="C52D940A6A74FBFCC37D34A20B5067E25C3BE882" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{F9A9D5EA-9FCE-4C44-88D3-CD3D5618AACE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{AD52951A-4E47-4D22-ACCE-9C73E4EEC872}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Position</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>255,255,255,255,255,255</t>
+  </si>
+  <si>
+    <t>Is Shiney</t>
+  </si>
+  <si>
+    <t>200,20,20,20,20,20</t>
   </si>
 </sst>
 </file>
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B84C65-31A2-400A-A69F-3CDF88CAE932}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +482,7 @@
     <col min="8" max="9" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +513,11 @@
       <c r="J1" t="s">
         <v>18</v>
       </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -539,8 +548,11 @@
       <c r="J2" t="s">
         <v>21</v>
       </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -572,7 +584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -604,7 +616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -636,7 +648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -659,7 +671,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -668,7 +680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
